--- a/input/date_TEST2_FIN2.xlsx
+++ b/input/date_TEST2_FIN2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Matlab\nr_ocl\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Matlab\Newton_Raphson_OpenCL_MEX\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F443A557-FB96-4A6C-A63E-BE5A11D75FB4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6619B039-BC63-482B-9985-3B74F8B96FE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="7800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="1680" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date_GENERALE" sheetId="4" r:id="rId1"/>
@@ -22,17 +22,22 @@
   <definedNames>
     <definedName name="zb">date_GENERALE!$F$6</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>nr</t>
   </si>
@@ -134,33 +139,6 @@
   </si>
   <si>
     <t>MVA</t>
-  </si>
-  <si>
-    <t>Nod</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>u.r.</t>
-  </si>
-  <si>
-    <t>rad</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>dif</t>
   </si>
   <si>
     <t>tip</t>
@@ -212,10 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,13 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Times New Roman"/>
@@ -291,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,8 +273,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -610,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -687,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,16 +672,16 @@
       <c r="C1" s="1">
         <v>220</v>
       </c>
-      <c r="D1" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1" s="10">
-        <v>0</v>
-      </c>
-      <c r="F1" s="10">
+      <c r="D1" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1" s="8">
         <v>250</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="8">
         <v>155</v>
       </c>
       <c r="H1" s="1">
@@ -741,16 +707,16 @@
       <c r="C2" s="1">
         <v>220</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>255</v>
       </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
         <v>0</v>
       </c>
       <c r="H2" s="1">
@@ -776,16 +742,16 @@
       <c r="C3" s="1">
         <v>220</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>60</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>35</v>
       </c>
       <c r="H3" s="1">
@@ -811,16 +777,16 @@
       <c r="C4" s="1">
         <v>220</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
         <v>190</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>130</v>
       </c>
       <c r="H4" s="1">
@@ -846,16 +812,16 @@
       <c r="C5" s="1">
         <v>220</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>240</v>
       </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
         <v>0</v>
       </c>
       <c r="H5" s="1">
@@ -881,16 +847,16 @@
       <c r="C6" s="1">
         <v>220</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
         <v>220</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>135</v>
       </c>
       <c r="H6" s="1">
@@ -916,16 +882,16 @@
       <c r="C7" s="1">
         <v>220</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>240</v>
       </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
         <v>0</v>
       </c>
       <c r="H7" s="1">
@@ -951,16 +917,16 @@
       <c r="C8" s="1">
         <v>220</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
         <v>65</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>35</v>
       </c>
       <c r="H8" s="1">
@@ -986,16 +952,16 @@
       <c r="C9" s="1">
         <v>220</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
         <v>130</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>70</v>
       </c>
       <c r="H9" s="1">
@@ -1021,16 +987,16 @@
       <c r="C10" s="1">
         <v>220</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
         <v>200</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>140</v>
       </c>
       <c r="H10" s="1">
@@ -1056,16 +1022,16 @@
       <c r="C11" s="1">
         <v>220</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>165</v>
       </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
         <v>0</v>
       </c>
       <c r="H11" s="1">
@@ -1091,16 +1057,16 @@
       <c r="C12" s="1">
         <v>220</v>
       </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
         <v>150</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <v>90</v>
       </c>
       <c r="H12" s="1">
@@ -1126,16 +1092,16 @@
       <c r="C13" s="1">
         <v>220</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>395</v>
       </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
         <v>0</v>
       </c>
       <c r="H13" s="1">
@@ -1152,38 +1118,38 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>51</v>
+      <c r="D15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1228,16 +1194,16 @@
       <c r="C23" s="1">
         <v>220</v>
       </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
         <v>250</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="8">
         <v>155</v>
       </c>
       <c r="H23" s="1">
@@ -1256,11 +1222,11 @@
         <v>0</v>
       </c>
       <c r="N23" s="1">
-        <f>A23</f>
+        <f t="shared" ref="N23:N35" si="0">A23</f>
         <v>1</v>
       </c>
       <c r="O23" s="1">
-        <f>B23</f>
+        <f t="shared" ref="O23:O35" si="1">B23</f>
         <v>2</v>
       </c>
       <c r="P23" s="1">
@@ -1314,16 +1280,16 @@
       <c r="C24" s="1">
         <v>220</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>255</v>
       </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
         <v>0</v>
       </c>
       <c r="H24" s="1">
@@ -1342,51 +1308,51 @@
         <v>0</v>
       </c>
       <c r="N24" s="1">
-        <f>A24</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O24" s="1">
-        <f>B24</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P24" s="1">
-        <f>C24/100</f>
+        <f t="shared" ref="P24:P35" si="2">C24/100</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q24" s="1">
-        <f>D24/100</f>
+        <f t="shared" ref="Q24:Q35" si="3">D24/100</f>
         <v>2.5499999999999998</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ref="R24:R35" si="0">E24/100</f>
+        <f t="shared" ref="R24:R35" si="4">E24/100</f>
         <v>0</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" ref="S24:S35" si="1">F24/100</f>
+        <f t="shared" ref="S24:S35" si="5">F24/100</f>
         <v>0</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" ref="T24:T35" si="2">G24/100</f>
+        <f t="shared" ref="T24:T35" si="6">G24/100</f>
         <v>0</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" ref="U24:U35" si="3">H24/C24</f>
+        <f t="shared" ref="U24:U35" si="7">H24/C24</f>
         <v>1.0454545454545454</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" ref="V24:V35" si="4">I24/100</f>
+        <f t="shared" ref="V24:V35" si="8">I24/100</f>
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" ref="W24:W35" si="5">J24/100</f>
+        <f t="shared" ref="W24:W35" si="9">J24/100</f>
         <v>1.9</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" ref="X24:X35" si="6">Q24-S24</f>
+        <f t="shared" ref="X24:X35" si="10">Q24-S24</f>
         <v>2.5499999999999998</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" ref="Y24:Y35" si="7">R24-T24</f>
+        <f t="shared" ref="Y24:Y35" si="11">R24-T24</f>
         <v>0</v>
       </c>
     </row>
@@ -1400,16 +1366,16 @@
       <c r="C25" s="1">
         <v>220</v>
       </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
         <v>60</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="8">
         <v>35</v>
       </c>
       <c r="H25" s="1">
@@ -1428,51 +1394,51 @@
         <v>0</v>
       </c>
       <c r="N25" s="1">
-        <f>A25</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="O25" s="1">
-        <f>B25</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P25" s="1">
-        <f>C25/100</f>
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q25" s="1">
-        <f>D25/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-0.6</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.35</v>
       </c>
     </row>
@@ -1486,16 +1452,16 @@
       <c r="C26" s="1">
         <v>220</v>
       </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
         <v>190</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="8">
         <v>130</v>
       </c>
       <c r="H26" s="1">
@@ -1514,51 +1480,51 @@
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <f>A26</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O26" s="1">
-        <f>B26</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P26" s="1">
-        <f>C26/100</f>
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q26" s="1">
-        <f>D26/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.9</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.3</v>
       </c>
     </row>
@@ -1572,16 +1538,16 @@
       <c r="C27" s="1">
         <v>220</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>240</v>
       </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
         <v>0</v>
       </c>
       <c r="H27" s="1">
@@ -1600,51 +1566,51 @@
         <v>0</v>
       </c>
       <c r="N27" s="1">
-        <f>A27</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O27" s="1">
-        <f>B27</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P27" s="1">
-        <f>C27/100</f>
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q27" s="1">
-        <f>D27/100</f>
+        <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0227272727272727</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.4</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1658,16 +1624,16 @@
       <c r="C28" s="1">
         <v>220</v>
       </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
         <v>220</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="8">
         <v>135</v>
       </c>
       <c r="H28" s="1">
@@ -1686,51 +1652,51 @@
         <v>0</v>
       </c>
       <c r="N28" s="1">
-        <f>A28</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="O28" s="1">
-        <f>B28</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P28" s="1">
-        <f>C28/100</f>
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q28" s="1">
-        <f>D28/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.35</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-2.2000000000000002</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.35</v>
       </c>
     </row>
@@ -1744,16 +1710,16 @@
       <c r="C29" s="1">
         <v>220</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>240</v>
       </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
         <v>0</v>
       </c>
       <c r="H29" s="1">
@@ -1772,51 +1738,51 @@
         <v>0</v>
       </c>
       <c r="N29" s="1">
-        <f>A29</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="O29" s="1">
-        <f>B29</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P29" s="1">
-        <f>C29/100</f>
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q29" s="1">
-        <f>D29/100</f>
+        <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0227272727272727</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.4</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1830,16 +1796,16 @@
       <c r="C30" s="1">
         <v>220</v>
       </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10">
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
         <v>65</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="8">
         <v>35</v>
       </c>
       <c r="H30" s="1">
@@ -1858,51 +1824,51 @@
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <f>A30</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="O30" s="1">
-        <f>B30</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P30" s="1">
-        <f>C30/100</f>
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q30" s="1">
-        <f>D30/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-0.65</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.35</v>
       </c>
     </row>
@@ -1916,16 +1882,16 @@
       <c r="C31" s="1">
         <v>220</v>
       </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10">
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
         <v>130</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="8">
         <v>70</v>
       </c>
       <c r="H31" s="1">
@@ -1944,51 +1910,51 @@
         <v>0</v>
       </c>
       <c r="N31" s="1">
-        <f>A31</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="O31" s="1">
-        <f>B31</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P31" s="1">
-        <f>C31/100</f>
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q31" s="1">
-        <f>D31/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.3</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.7</v>
       </c>
     </row>
@@ -2002,16 +1968,16 @@
       <c r="C32" s="1">
         <v>220</v>
       </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10">
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
         <v>200</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="8">
         <v>140</v>
       </c>
       <c r="H32" s="1">
@@ -2030,51 +1996,51 @@
         <v>0</v>
       </c>
       <c r="N32" s="1">
-        <f>A32</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O32" s="1">
-        <f>B32</f>
-        <v>2</v>
-      </c>
-      <c r="P32" s="1">
-        <f>C32/100</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q32" s="1">
-        <f>D32/100</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="P32" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
       <c r="T32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.4</v>
       </c>
     </row>
@@ -2088,16 +2054,16 @@
       <c r="C33" s="1">
         <v>220</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>165</v>
       </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="10">
-        <v>0</v>
-      </c>
-      <c r="G33" s="10">
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
         <v>0</v>
       </c>
       <c r="H33" s="1">
@@ -2116,51 +2082,51 @@
         <v>0</v>
       </c>
       <c r="N33" s="1">
-        <f>A33</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="O33" s="1">
-        <f>B33</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P33" s="1">
-        <f>C33/100</f>
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q33" s="1">
-        <f>D33/100</f>
+        <f t="shared" si="3"/>
         <v>1.65</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0590909090909091</v>
       </c>
       <c r="V33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-0.6</v>
       </c>
       <c r="W33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
       <c r="X33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.65</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2174,16 +2140,16 @@
       <c r="C34" s="1">
         <v>220</v>
       </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="10">
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
         <v>150</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="8">
         <v>90</v>
       </c>
       <c r="H34" s="1">
@@ -2202,51 +2168,51 @@
         <v>0</v>
       </c>
       <c r="N34" s="1">
-        <f>A34</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O34" s="1">
-        <f>B34</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P34" s="1">
-        <f>C34/100</f>
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q34" s="1">
-        <f>D34/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.5</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.9</v>
       </c>
     </row>
@@ -2260,16 +2226,16 @@
       <c r="C35" s="1">
         <v>220</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>395</v>
       </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10">
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
         <v>0</v>
       </c>
       <c r="H35" s="1">
@@ -2288,51 +2254,51 @@
         <v>0</v>
       </c>
       <c r="N35" s="1">
-        <f>A35</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="O35" s="1">
-        <f>B35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <f>C35/100</f>
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q35" s="1">
-        <f>D35/100</f>
+        <f t="shared" si="3"/>
         <v>3.95</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0681818181818181</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.95</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2411,49 +2377,49 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O39" s="14" t="s">
+      <c r="N39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U39" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="X39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P39" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q39" s="14" t="s">
+      <c r="Y39" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="R39" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="S39" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="T39" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="U39" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="V39" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="W39" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -2991,10 +2957,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3612,556 +3578,556 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>220</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>6.5999999642372131E-2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>0.40400001406669617</v>
       </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
         <v>2.7733333110809327E-6</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>150</v>
       </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>220</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>6.6249996423721313E-2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>0.40375000238418579</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
         <v>2.7750000953674316E-6</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>80</v>
       </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>220</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>6.3392899930477142E-2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>0.40357139706611633</v>
       </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
         <v>2.7767856121063231E-6</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>112</v>
       </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>220</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>6.5999999642372131E-2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>0.41800001263618469</v>
       </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
         <v>2.7200000286102295E-6</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>100</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>2</v>
       </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>220</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>7.3888897895812988E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>0.42111110687255859</v>
       </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
         <v>2.7000000476837159E-6</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>90</v>
       </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>220</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>6.571429967880249E-2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>0.40428569912910461</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
         <v>2.7857143878936766E-6</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>70</v>
       </c>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>220</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>6.6666699945926666E-2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>0.40333330631256104</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
         <v>2.7833333015441895E-6</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>60</v>
       </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>220</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>6.6249996423721313E-2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>0.40375000238418579</v>
       </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
         <v>2.7750000953674316E-6</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>80</v>
       </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
         <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>220</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>7.3333330452442169E-2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>0.41999998688697815</v>
       </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
         <v>2.6933333873748779E-6</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>75</v>
       </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7">
-        <v>1</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>220</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>6.5833330154418945E-2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>0.40416669845581055</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
         <v>2.7750000953674316E-6</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>120</v>
       </c>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
-      <c r="K12" s="7">
-        <v>1</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>220</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>6.6249996423721313E-2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>0.40375000238418579</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
         <v>2.7750000953674316E-6</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>80</v>
       </c>
-      <c r="J13" s="7">
-        <v>1</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>11</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>13</v>
       </c>
       <c r="D14" s="1">
         <v>220</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>6.5454497933387756E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>0.4036363959312439</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
         <v>2.7818181514739989E-6</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <v>55</v>
       </c>
-      <c r="J14" s="7">
-        <v>1</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>13</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>12</v>
       </c>
       <c r="D15" s="1">
         <v>220</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>6.6265098750591278E-2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>0.40361449122428894</v>
       </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
         <v>2.7710843086242674E-6</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <v>83</v>
       </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7">
-        <v>1</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11">
         <v>13</v>
       </c>
       <c r="D16" s="1">
         <v>220</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>6.5333329141139984E-2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>0.41866666078567505</v>
       </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
         <v>2.7066667079925535E-6</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <v>150</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>2</v>
       </c>
-      <c r="K16" s="7">
-        <v>1</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>4</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>5</v>
       </c>
       <c r="D17" s="1">
         <v>220</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>6.6666699945926666E-2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>0.40333330631256104</v>
       </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
         <v>2.7833330631256102E-6</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <v>60</v>
       </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20"/>
@@ -4170,7 +4136,7 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="9"/>
       <c r="I20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4180,7 +4146,7 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="9"/>
       <c r="I21"/>
       <c r="L21" s="2"/>
     </row>
@@ -4191,7 +4157,7 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="9"/>
       <c r="I22"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4201,7 +4167,7 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="9"/>
       <c r="I23"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4211,7 +4177,7 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="9"/>
       <c r="I24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4221,7 +4187,7 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="9"/>
       <c r="I25"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -4231,7 +4197,7 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26" s="11"/>
+      <c r="H26" s="9"/>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4241,7 +4207,7 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="H27" s="11"/>
+      <c r="H27" s="9"/>
       <c r="I27"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4251,7 +4217,7 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="H28" s="11"/>
+      <c r="H28" s="9"/>
       <c r="I28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -4261,7 +4227,7 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29" s="11"/>
+      <c r="H29" s="9"/>
       <c r="I29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4271,7 +4237,7 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="9"/>
       <c r="I30"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4281,7 +4247,7 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="9"/>
       <c r="I31"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4291,7 +4257,7 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="H32" s="11"/>
+      <c r="H32" s="9"/>
       <c r="I32"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -4301,7 +4267,7 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="9"/>
       <c r="I33"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -4311,7 +4277,7 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
-      <c r="H34" s="11"/>
+      <c r="H34" s="9"/>
       <c r="I34"/>
     </row>
   </sheetData>
@@ -4346,471 +4312,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.96618139583326179</v>
-      </c>
-      <c r="C2">
-        <v>-0.1355276661614524</v>
-      </c>
-      <c r="D2">
-        <v>-2.5000000239686648</v>
-      </c>
-      <c r="E2">
-        <v>-1.5499862040012928</v>
-      </c>
-      <c r="F2">
-        <v>0.98260000000000003</v>
-      </c>
-      <c r="G2">
-        <f>B2-F2</f>
-        <v>-1.6418604166738238E-2</v>
-      </c>
-      <c r="H2">
-        <v>-0.13431006725797165</v>
-      </c>
-      <c r="I2">
-        <f>C2-H2</f>
-        <v>-1.2175989034807488E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1.0454545454545454</v>
-      </c>
-      <c r="C3">
-        <v>-5.0045165110990039E-2</v>
-      </c>
-      <c r="D3">
-        <v>2.5500001169451121</v>
-      </c>
-      <c r="E3">
-        <v>1.250206830318719</v>
-      </c>
-      <c r="F3">
-        <v>1.0455000000000001</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G14" si="0">B3-F3</f>
-        <v>-4.545454545468175E-5</v>
-      </c>
-      <c r="H3">
-        <v>-4.6504297919388912E-2</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I14" si="1">C3-H3</f>
-        <v>-3.540867191601127E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1.0191176544982974</v>
-      </c>
-      <c r="C4">
-        <v>-8.4610207464957454E-2</v>
-      </c>
-      <c r="D4">
-        <v>-0.6000000000078356</v>
-      </c>
-      <c r="E4">
-        <v>-0.34999999996762376</v>
-      </c>
-      <c r="F4">
-        <v>1.0190999999999999</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1.7654498297492438E-5</v>
-      </c>
-      <c r="H4">
-        <v>-8.1070543755136601E-2</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>-3.5396637098208533E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.97888137548819376</v>
-      </c>
-      <c r="C5">
-        <v>-0.14764882982813149</v>
-      </c>
-      <c r="D5">
-        <v>-1.8999999957327081</v>
-      </c>
-      <c r="E5">
-        <v>-1.2999999872993442</v>
-      </c>
-      <c r="F5">
-        <v>0.97889999999999999</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>-1.8624511806231148E-5</v>
-      </c>
-      <c r="H5">
-        <v>-0.14333341949078232</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>-4.3154103373491681E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1.0227272727272727</v>
-      </c>
-      <c r="C6">
-        <v>-0.11570927440565093</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2.4000000018258252</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1.4591651478103138</v>
-      </c>
-      <c r="F6">
-        <v>1.0226999999999999</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>2.7272727272764641E-5</v>
-      </c>
-      <c r="H6">
-        <v>-0.11097152450030345</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>-4.737749905347477E-3</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.97762018431731845</v>
-      </c>
-      <c r="C7">
-        <v>-0.18036547299840536</v>
-      </c>
-      <c r="D7">
-        <v>-2.1999999984183818</v>
-      </c>
-      <c r="E7">
-        <v>-1.3499999958955229</v>
-      </c>
-      <c r="F7">
-        <v>0.97760000000000002</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>2.0184317318427958E-5</v>
-      </c>
-      <c r="H7">
-        <v>-0.17526770881452255</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>-5.0977641838828025E-3</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1.0227272727272727</v>
-      </c>
-      <c r="C8">
-        <v>-0.1402813147311372</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2.4000000045262744</v>
-      </c>
-      <c r="E8">
-        <v>1.7188307654384012</v>
-      </c>
-      <c r="F8">
-        <v>1.0226999999999999</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>2.7272727272764641E-5</v>
-      </c>
-      <c r="H8">
-        <v>-0.13452823341447093</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>-5.7530813166662698E-3</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.99818489983839087</v>
-      </c>
-      <c r="C9">
-        <v>-0.17469659456839479</v>
-      </c>
-      <c r="D9">
-        <v>-0.64999999999915969</v>
-      </c>
-      <c r="E9">
-        <v>-0.34999999999731557</v>
-      </c>
-      <c r="F9">
-        <v>0.99819999999999998</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>-1.5100161609105101E-5</v>
-      </c>
-      <c r="H9">
-        <v>-0.16894263560529513</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>-5.753958963099659E-3</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.9635779319043396</v>
-      </c>
-      <c r="C10">
-        <v>-0.18972131564530723</v>
-      </c>
-      <c r="D10">
-        <v>-1.2999996631894568</v>
-      </c>
-      <c r="E10">
-        <v>-0.69999996706396139</v>
-      </c>
-      <c r="F10">
-        <v>0.98080000000000001</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>-1.7222068095660403E-2</v>
-      </c>
-      <c r="H10">
-        <v>-0.18556864205979312</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>-4.152673585514105E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.94372116632623138</v>
-      </c>
-      <c r="C11">
-        <v>-0.17325811386952714</v>
-      </c>
-      <c r="D11">
-        <v>-1.9999993661441064</v>
-      </c>
-      <c r="E11">
-        <v>-1.39999920663276</v>
-      </c>
-      <c r="F11">
-        <v>0.98270000000000002</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>-3.8978833673768642E-2</v>
-      </c>
-      <c r="H11">
-        <v>-0.17339671585638464</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>1.3860198685750058E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1.0590909090909091</v>
-      </c>
-      <c r="C12">
-        <v>-2.3163484526716842E-2</v>
-      </c>
-      <c r="D12">
-        <v>1.6499996121181613</v>
-      </c>
-      <c r="E12">
-        <v>1.1599780638942558</v>
-      </c>
-      <c r="F12">
-        <v>1.0590999999999999</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>-9.0909090908475321E-6</v>
-      </c>
-      <c r="H12">
-        <v>-2.3087215345380992E-2</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>-7.6269181335849451E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1.0681818181818181</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3.9088609207340466</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1.7286787835126542</v>
-      </c>
-      <c r="F13">
-        <v>1.0682</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>-1.8181818181917109E-5</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1.0284731484266449</v>
-      </c>
-      <c r="C14">
-        <v>-5.4353035493608932E-2</v>
-      </c>
-      <c r="D14">
-        <v>-1.499999999680572</v>
-      </c>
-      <c r="E14">
-        <v>-0.89999999648881612</v>
-      </c>
-      <c r="F14">
-        <v>1.0285</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>-2.6851573355024527E-5</v>
-      </c>
-      <c r="H14">
-        <v>-5.431464632206353E-2</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>-3.8389171545402667E-5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
